--- a/SWEA/A형대비_필수SWEA_r2.xlsx
+++ b/SWEA/A형대비_필수SWEA_r2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChoSooWan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChoSooWan\Desktop\Algorithm\SWEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8A5D7C-EC10-43A5-B482-8A57D1C7B924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65302DF4-2D87-4852-8DD4-A9B1BF7C2FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="900" windowWidth="21375" windowHeight="13950" xr2:uid="{53FCA929-DFDA-4774-A849-2FD7E81E83F0}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21375" windowHeight="13950" xr2:uid="{53FCA929-DFDA-4774-A849-2FD7E81E83F0}"/>
   </bookViews>
   <sheets>
     <sheet name="SWEA" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>문항분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371F9B29-DE14-4A88-804B-E97ABC04F4B8}">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1026,7 +1026,9 @@
       <c r="D24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">

--- a/SWEA/A형대비_필수SWEA_r2.xlsx
+++ b/SWEA/A형대비_필수SWEA_r2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChoSooWan\Desktop\Algorithm\SWEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65302DF4-2D87-4852-8DD4-A9B1BF7C2FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B663FF-F051-4ABF-8F8B-C0CD2603C205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21375" windowHeight="13950" xr2:uid="{53FCA929-DFDA-4774-A849-2FD7E81E83F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>문항분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371F9B29-DE14-4A88-804B-E97ABC04F4B8}">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -838,7 +838,9 @@
         <v>19</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
